--- a/face_recognition_attendance_dashboard/attendance_report.xlsx
+++ b/face_recognition_attendance_dashboard/attendance_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,16 @@
           <t>2023-12-18</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -522,6 +532,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -567,11 +583,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -606,6 +624,8 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
